--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -16,7 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">So sanh phuong phapp phan doan tuyen tinh Vs mines.  </t>
+  </si>
+  <si>
+    <t>Dung cach uoc luong chieu dai PAA cho HotSAX cai tien</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1960,11 +1967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="30748672"/>
-        <c:axId val="30750208"/>
+        <c:axId val="61183104"/>
+        <c:axId val="61184640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30748672"/>
+        <c:axId val="61183104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,7 +1980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30750208"/>
+        <c:crossAx val="61184640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1981,7 +1988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30750208"/>
+        <c:axId val="61184640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,7 +1999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30748672"/>
+        <c:crossAx val="61183104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2336,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G72"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4715,6 +4722,14 @@
       </c>
       <c r="H72">
         <v>92.847200000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
